--- a/app/outputs/tech_match.xlsx
+++ b/app/outputs/tech_match.xlsx
@@ -3614,7 +3614,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Investigaciones Científicas y Técnicas</t>
+          <t>Consejo Nacional de Investigaciones CientÃ­ficas y TÃ©cnicas</t>
         </is>
       </c>
       <c r="B28" t="n">
